--- a/_docs/experiment/preview.xlsx
+++ b/_docs/experiment/preview.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Flash</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>100K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5 DataURL Resize(Quality 50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,32 +201,17 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="standard"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>FLASH</c:v>
+            <c:v>Flash</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -301,7 +290,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>H5 DataURL</c:v>
+            <c:v>DataURL</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -380,7 +369,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>H5 ObjectURL</c:v>
+            <c:v>ObjectURL</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -450,6 +439,85 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>274.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>DataURL with Resize</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800K</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5M</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10M</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>245.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -464,13 +532,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="563175400"/>
-        <c:axId val="563860168"/>
-        <c:axId val="706944872"/>
-      </c:bar3DChart>
+        <c:axId val="713652040"/>
+        <c:axId val="713836328"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="563175400"/>
+        <c:axId val="713652040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,7 +545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563860168"/>
+        <c:crossAx val="713836328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -487,7 +553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563860168"/>
+        <c:axId val="713836328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,22 +564,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563175400"/>
+        <c:crossAx val="713652040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:serAx>
-        <c:axId val="706944872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563860168"/>
-      </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -536,16 +590,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -889,15 +943,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1025,6 +1079,38 @@
       </c>
       <c r="J4">
         <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>4.2</v>
+      </c>
+      <c r="C5">
+        <v>6.5</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>59</v>
+      </c>
+      <c r="H5">
+        <v>105</v>
+      </c>
+      <c r="I5">
+        <v>185</v>
+      </c>
+      <c r="J5">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/_docs/experiment/preview.xlsx
+++ b/_docs/experiment/preview.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Flash</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,7 +69,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H5 DataURL Resize(Quality 50)</t>
+    <t>H5 DataURL Resize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5 ObjectURL Resize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extrem(600M|274 Files)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,8 +141,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -158,7 +178,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="29">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -169,6 +189,10 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -179,6 +203,10 @@
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -201,9 +229,24 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -216,9 +259,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$B$1:$J$1</c:f>
+              <c:f>工作表1!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100K</c:v>
                 </c:pt>
@@ -245,24 +288,27 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Extrem(600M|274 Files)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$2:$J$2</c:f>
+              <c:f>工作表1!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.0</c:v>
@@ -281,6 +327,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>650.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -295,9 +344,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$B$1:$J$1</c:f>
+              <c:f>工作表1!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100K</c:v>
                 </c:pt>
@@ -324,16 +373,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Extrem(600M|274 Files)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$3:$J$3</c:f>
+              <c:f>工作表1!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.6</c:v>
                 </c:pt>
@@ -360,6 +412,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>591.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,9 +429,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$B$1:$J$1</c:f>
+              <c:f>工作表1!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100K</c:v>
                 </c:pt>
@@ -403,16 +458,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Extrem(600M|274 Files)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$4:$J$4</c:f>
+              <c:f>工作表1!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.1</c:v>
                 </c:pt>
@@ -439,6 +497,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>274.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,14 +509,14 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>DataURL with Resize</c:v>
+            <c:v>DataURL Resize</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$B$1:$J$1</c:f>
+              <c:f>工作表1!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100K</c:v>
                 </c:pt>
@@ -482,16 +543,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Extrem(600M|274 Files)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$5:$J$5</c:f>
+              <c:f>工作表1!$B$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4.2</c:v>
                 </c:pt>
@@ -518,6 +582,94 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>ObjectURL Resize</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800K</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5M</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10M</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Extrem(600M|274 Files)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,9 +684,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
+        <c:shape val="box"/>
         <c:axId val="713652040"/>
         <c:axId val="713836328"/>
-      </c:barChart>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
         <c:axId val="713652040"/>
         <c:scaling>
@@ -571,7 +725,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.790533997476835"/>
+          <c:y val="0.381233654386952"/>
+          <c:w val="0.105103617616379"/>
+          <c:h val="0.185609181015035"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -592,14 +755,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1308100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -943,18 +1106,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,19 +1146,22 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1014,8 +1181,11 @@
       <c r="J2">
         <v>50</v>
       </c>
+      <c r="K2">
+        <v>650</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1048,8 +1218,11 @@
       <c r="J3">
         <v>591</v>
       </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1080,8 +1253,11 @@
       <c r="J4">
         <v>274</v>
       </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1111,6 +1287,44 @@
       </c>
       <c r="J5">
         <v>245</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1.7</v>
+      </c>
+      <c r="F6">
+        <v>1.7</v>
+      </c>
+      <c r="G6">
+        <v>4.5</v>
+      </c>
+      <c r="H6">
+        <v>10.5</v>
+      </c>
+      <c r="I6">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
